--- a/Qhta.Conversion/docs/Xsd Schema Simple Types.xlsx
+++ b/Qhta.Conversion/docs/Xsd Schema Simple Types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\MyLib\Qhta.Conversion\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629044B8-71E6-4765-83FD-70310879AB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B38131-0ABE-4D88-A013-3F9FA35990BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="525" windowWidth="14925" windowHeight="11385" xr2:uid="{7156DDC7-78E1-4EDA-9D3E-B432D8614A8B}"/>
+    <workbookView xWindow="14235" yWindow="135" windowWidth="14565" windowHeight="11385" xr2:uid="{7156DDC7-78E1-4EDA-9D3E-B432D8614A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="172">
   <si>
     <t xml:space="preserve">Typ prosty XSD </t>
   </si>
@@ -71,9 +71,6 @@
     <t>NMTOKEN</t>
   </si>
   <si>
-    <t>Token, który zawiera tylko znaki, cyfry, kropkę, dwukropek myślnik lub znaki Unicode z kategorii „kombinacyjnych” lub „rozszerzających”.</t>
-  </si>
-  <si>
     <t>NMTOKENS</t>
   </si>
   <si>
@@ -83,15 +80,9 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Token, który zawiera wyłącznie litery, cyfry, ideogramy, podkreślenie, myślnik, kropkę i dwukropek. Cyfry, myślniki i kropka nie mogą rozpoczynać łańcucha.</t>
-  </si>
-  <si>
     <t>NCName</t>
   </si>
   <si>
-    <t>Nazwa nie może zawierać dwukropka.</t>
-  </si>
-  <si>
     <t>QName</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>anyURI</t>
   </si>
   <si>
-    <t>String, Uri</t>
-  </si>
-  <si>
     <t>anySimpleType</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>String, dowolny typ całkowity</t>
-  </si>
-  <si>
     <t>Ciąg cyfr dziesiętnych opcjonalnie poprzedzony znakiem ‘-’ (myślnika).</t>
   </si>
   <si>
@@ -200,9 +185,6 @@
     <t>byte</t>
   </si>
   <si>
-    <t>SByte</t>
-  </si>
-  <si>
     <t>Liczby całkowite z zakresu od -128 do 127.</t>
   </si>
   <si>
@@ -218,9 +200,6 @@
     <t>short</t>
   </si>
   <si>
-    <t>Int16</t>
-  </si>
-  <si>
     <t>Liczby całkowite z zakresu od -32768 do 32767.</t>
   </si>
   <si>
@@ -290,13 +269,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>DateTime, Date</t>
-  </si>
-  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>DateTime, Time</t>
   </si>
   <si>
     <t>dateTime</t>
@@ -924,9 +897,6 @@
     <t>Czas kodowany wg wzorca "hh:mm:ss[Z|(+|-)hh:mm]".</t>
   </si>
   <si>
-    <t>normalizedStrinng</t>
-  </si>
-  <si>
     <t>&lt;xsd:simpleType name="token" id="token"&gt;
  &lt;xsd:restriction base="xsd:normalizedString"&gt;
  &lt;xsd:whiteSpace value="collapse"/&gt;
@@ -978,6 +948,39 @@
   </si>
   <si>
     <t>Ciąg elementów NMTOKEN oddzielonych spacjami.</t>
+  </si>
+  <si>
+    <t>SByte, inne typy całkowite</t>
+  </si>
+  <si>
+    <t>DateTime, DateOnly, Date</t>
+  </si>
+  <si>
+    <t>Decimal, typy całkowite</t>
+  </si>
+  <si>
+    <t>TimeSpan</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Int32, inne typy całkowite</t>
+  </si>
+  <si>
+    <t>DateTime, TimeOnly</t>
+  </si>
+  <si>
+    <t>Uri, String</t>
+  </si>
+  <si>
+    <t>Nazwa niekwalifikowana. Nie może zawierać dwukropka.</t>
+  </si>
+  <si>
+    <t>Token, który zawiera tylko litery, cyfry, kropkę, dwukropek, myślnik lub znaki Unicode z kategorii „kombinacyjnych” lub „rozszerzających”.</t>
+  </si>
+  <si>
+    <t>Token, który zawiera wyłącznie litery, cyfry, ideogramy, podkreślenie, myślnik, kropkę i dwukropek. Cyfra, myślnik i kropka nie mogą rozpoczynać łańcucha.</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF62111-793A-4B16-B457-D00751AA0B43}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15"/>
@@ -1368,9 +1371,9 @@
     <col min="8" max="16384" width="25.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1388,613 +1391,717 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="75">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75">
       <c r="A2" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2:H45" si="0">"[XmlEnum(""" &amp;B2 &amp;""")]" &amp; " " &amp;PROPER(B2)&amp;","</f>
+        <v>[XmlEnum("boolean")] Boolean,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120">
+      <c r="A3" s="4">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="75">
-      <c r="A3" s="4">
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("unsignedByte")] Unsignedbyte,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75">
+      <c r="A4" s="4">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("base64Binary")] Base64Binary,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75">
+      <c r="A5" s="4">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="75">
-      <c r="A4" s="4">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="117.75">
-      <c r="A5" s="4">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="90">
+        <v>125</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("hexBinary")] Hexbinary,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90">
       <c r="A6" s="4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>101</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="90">
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("gDay")] Gday,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90">
       <c r="A7" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("gMonth")] Gmonth,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90">
+      <c r="A8" s="4">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("gMonthDay")] Gmonthday,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90">
+      <c r="A9" s="4">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="150">
-      <c r="A8" s="4">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="180">
-      <c r="A9" s="4">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90">
+        <v>123</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("gYear")] Gyear,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90">
       <c r="A10" s="4">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("gYearMonth")] Gyearmonth,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="90">
+      <c r="A11" s="4">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("dateTime")] Datetime,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90">
+      <c r="A12" s="4">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("date")] Date,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="90">
+      <c r="A13" s="4">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("time")] Time,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="120">
+      <c r="A14" s="4">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("negativeInteger")] Negativeinteger,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="120">
+      <c r="A15" s="4">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("nonNegativeInteger")] Nonnegativeinteger,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120">
+      <c r="A16" s="4">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("nonPositiveInteger")] Nonpositiveinteger,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="120">
+      <c r="A17" s="4">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("positiveInteger")] Positiveinteger,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="150">
+      <c r="A18" s="4">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("decimal")] Decimal,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="120">
+      <c r="A19" s="4">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("integer")] Integer,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="180">
+      <c r="A20" s="4">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("double")] Double,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120">
+      <c r="A21" s="4">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("short")] Short,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="120">
+      <c r="A22" s="4">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("int")] Int,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="120">
+      <c r="A23" s="4">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("long")] Long,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="117.75">
+      <c r="A24" s="4">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("byte")] Byte,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="180">
+      <c r="A25" s="4">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("float")] Float,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="195">
+      <c r="A26" s="4">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="180">
-      <c r="A11" s="4">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="195">
-      <c r="A12" s="4">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="180">
-      <c r="A13" s="4">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="90">
-      <c r="A14" s="4">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="90">
-      <c r="A15" s="4">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="90">
-      <c r="A16" s="4">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="90">
-      <c r="A17" s="4">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="90">
-      <c r="A18" s="4">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="75">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75">
-      <c r="A20" s="4">
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("ENTITY")] Entity,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="75">
+      <c r="A27" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="75">
-      <c r="A21" s="4">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="180">
-      <c r="A22" s="4">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="120">
-      <c r="A23" s="4">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="120">
-      <c r="A24" s="4">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="105">
-      <c r="A25" s="4">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="120">
-      <c r="A26" s="4">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="75">
-      <c r="A27" s="4">
-        <v>6</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="75">
+        <v>126</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("ID")] Id,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75">
       <c r="A28" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -2003,44 +2110,52 @@
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="120">
+        <v>127</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("IDREF")] Idref,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105">
       <c r="A29" s="4">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="75">
+        <v>132</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("language")] Language,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="75">
       <c r="A30" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -2049,363 +2164,427 @@
         <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("Name")] Name,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75">
+      <c r="A31" s="4">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("NCName")] Ncname,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="75">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("NMTOKEN")] Nmtoken,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="75">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("normalizedString")] Normalizedstring,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="75">
+      <c r="A34" s="4">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="180">
-      <c r="A31" s="4">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="120">
-      <c r="A32" s="4">
-        <v>21</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="120">
-      <c r="A33" s="4">
-        <v>24</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="75">
-      <c r="A34" s="4">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("NOTATION")] Notation,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="75">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="75">
-      <c r="A35" s="4">
-        <v>14</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("string")] String,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="75">
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("token")] Token,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="75">
+      <c r="A37" s="4">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("anyURI")] Anyuri,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="180">
+      <c r="A38" s="4">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("ENTITIES")] Entities,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="180">
+      <c r="A39" s="4">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("IDREFS")] Idrefs,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="180">
+      <c r="A40" s="4">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("NMTOKENS")] Nmtokens,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="90">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("duration")] Duration,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="120">
+      <c r="A42" s="4">
         <v>28</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="120">
-      <c r="A36" s="4">
-        <v>22</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="75">
-      <c r="A37" s="4">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="120">
-      <c r="A38" s="4">
-        <v>27</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="75">
-      <c r="A39" s="4">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="90">
-      <c r="A40" s="4">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="75">
-      <c r="A41" s="4">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="120">
-      <c r="A42" s="4">
-        <v>26</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="120">
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("unsignedShort")] Unsignedshort,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="120">
       <c r="A43" s="4">
         <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="120">
+        <v>154</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("unsignedInt")] Unsignedint,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="120">
       <c r="A44" s="4">
         <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="120">
+        <v>155</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("unsignedLong")] Unsignedlong,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="75">
       <c r="A45" s="4">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[XmlEnum("QName")] Qname,</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
-    <sortCondition ref="B2:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H45">
+    <sortCondition ref="C2:C45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
